--- a/biology/Microbiologie/Meseres/Meseres.xlsx
+++ b/biology/Microbiologie/Meseres/Meseres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meseres, unique représentant de la famille des Meseridae, est un genre de Ciliés de l'ordre des Halteriida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meseres est dérivé du grec μεσερ / meser, « situé au milieu ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Sabine Agatha (2004) : « Meseres diffère des genres Halteria et Pelagohalteria  (famille des Halteriidae) par la disposition de la ciliature somatique[1] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Sabine Agatha (2004) : « Meseres diffère des genres Halteria et Pelagohalteria  (famille des Halteriidae) par la disposition de la ciliature somatique ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meseres corlissi Petz &amp; Foissner, 1992 a été découvert dans l'étang de Krauthüge, en Autriche, mais est probablement cosmopolite[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meseres corlissi Petz &amp; Foissner, 1992 a été découvert dans l'étang de Krauthüge, en Autriche, mais est probablement cosmopolite.
 </t>
         </is>
       </c>
@@ -604,12 +622,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (13 novembre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (13 novembre 2023) :
 Meseres cordiformis Schewiakoff, 1892
 Meseres corlissi Petz &amp; Foissner, 1992
-Selon GBIF       (13 novembre 2023)[4] :
+Selon GBIF       (13 novembre 2023) :
 Meseres cordiformes Schewiakoff, 1893
 Meseres corlissi Petz &amp; Foissner, 1992
 Meseres stentor Schewiakoff, 1893</t>
@@ -640,10 +660,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Meseres Schewiakoff, 1892. Meseres cordiformis Schewiakoff, 1892 est l'espèce type. C'est l'unique genre de la famille des Meseridae selon le World Register of Marine Species                               (13 novembre 2023)[3], tandis que GBIF       (13 novembre 2023)[4] et The Taxonomicon  (13 novembre 2023)[5] le classent dans la famille des Halteriidae.
-Meseres, mentionné pour la première fois en 1892 par le protistologiste russe Wladimir Schewiakoff, mais sans description ni définition, est un nomen nudum[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Meseres Schewiakoff, 1892. Meseres cordiformis Schewiakoff, 1892 est l'espèce type. C'est l'unique genre de la famille des Meseridae selon le World Register of Marine Species                               (13 novembre 2023), tandis que GBIF       (13 novembre 2023) et The Taxonomicon  (13 novembre 2023) le classent dans la famille des Halteriidae.
+Meseres, mentionné pour la première fois en 1892 par le protistologiste russe Wladimir Schewiakoff, mais sans description ni définition, est un nomen nudum.
 </t>
         </is>
       </c>
